--- a/document/危废电子联单系统数据库设计.xlsx
+++ b/document/危废电子联单系统数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="785" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" tabRatio="785" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="用户（user)" sheetId="18" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="436">
   <si>
     <t>序号</t>
   </si>
@@ -1046,14 +1046,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>production_unit_legal_person_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>production_unitLegalPersonName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>phone_num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1178,10 +1170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>transport_unit_legal_person_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>transport_unit_legal_person_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1295,10 +1283,6 @@
   </si>
   <si>
     <t>receiving_unit_contacts_phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiving_unit_legal_person_num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1362,18 +1346,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>外键，production_unit表的主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外键，transport_unit表的主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外键，receiving_unit表的主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>接受单位编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1438,10 +1410,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>外键，waste表的主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1546,10 +1514,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>外键，user表的主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>车辆1编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1610,10 +1574,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>transport_start_point1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>transport_pass_by_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1699,6 +1659,86 @@
   </si>
   <si>
     <t>5:production/6:transport/7:reception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transport_start_point_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>production_unit_legal_person_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transport_unit_legal_person_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiving_unit_legal_person_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>production_unit_legal_person_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键fk_user_id_production，user表的主键user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键fk_user_id_transport，user表的主键user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键fk_user_id_receiving，user表的主键user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manifest_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键fk_waste_id，waste表的主键waste_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键fk_production_unit_id，production_unit表的主键production_unit_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键fk_transport_unit_id，transport_unit表的主键transport_unit_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键fk_receiving_unit_id，receiving_unit表的主键receiving_unit_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2301,7 +2341,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2350,7 +2390,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>242</v>
@@ -2373,10 +2413,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -2396,7 +2436,7 @@
         <v>255</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -2416,7 +2456,7 @@
         <v>255</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -2447,7 +2487,7 @@
         <v>222</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>233</v>
@@ -2476,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -2496,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -2516,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -2536,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -2556,7 +2596,7 @@
         <v>255</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -2576,7 +2616,7 @@
         <v>255</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -2596,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -2616,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -2631,7 +2671,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2639,7 +2679,7 @@
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -2706,7 +2746,7 @@
         <v>246</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>387</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -2819,7 +2859,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>253</v>
@@ -3053,7 +3093,7 @@
         <v>122</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>264</v>
+        <v>417</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>188</v>
@@ -3074,7 +3114,7 @@
         <v>123</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>265</v>
+        <v>420</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>188</v>
@@ -3095,7 +3135,7 @@
         <v>125</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>188</v>
@@ -3116,7 +3156,7 @@
         <v>124</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>188</v>
@@ -3137,7 +3177,7 @@
         <v>126</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>188</v>
@@ -3158,7 +3198,7 @@
         <v>157</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>189</v>
@@ -3177,7 +3217,7 @@
         <v>158</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>189</v>
@@ -3199,7 +3239,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3207,7 +3247,7 @@
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -3236,10 +3276,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>241</v>
@@ -3251,7 +3291,7 @@
         <v>186</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -3259,10 +3299,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>231</v>
@@ -3274,7 +3314,7 @@
         <v>186</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>387</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -3285,7 +3325,7 @@
         <v>129</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>190</v>
@@ -3306,7 +3346,7 @@
         <v>150</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>190</v>
@@ -3327,7 +3367,7 @@
         <v>130</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>190</v>
@@ -3348,7 +3388,7 @@
         <v>198</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>190</v>
@@ -3369,7 +3409,7 @@
         <v>132</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>190</v>
@@ -3390,7 +3430,7 @@
         <v>133</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>190</v>
@@ -3411,7 +3451,7 @@
         <v>137</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>190</v>
@@ -3432,7 +3472,7 @@
         <v>138</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>190</v>
@@ -3453,7 +3493,7 @@
         <v>151</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>190</v>
@@ -3474,7 +3514,7 @@
         <v>152</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>190</v>
@@ -3495,7 +3535,7 @@
         <v>153</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>190</v>
@@ -3516,7 +3556,7 @@
         <v>154</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>190</v>
@@ -3537,7 +3577,7 @@
         <v>155</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>190</v>
@@ -3558,7 +3598,7 @@
         <v>139</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>190</v>
@@ -3579,7 +3619,7 @@
         <v>140</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>190</v>
@@ -3600,7 +3640,7 @@
         <v>134</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>190</v>
@@ -3621,13 +3661,13 @@
         <v>135</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>190</v>
+        <v>430</v>
       </c>
       <c r="E20" s="18">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>186</v>
@@ -3642,13 +3682,13 @@
         <v>136</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>190</v>
+        <v>431</v>
       </c>
       <c r="E21" s="18">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>186</v>
@@ -3663,7 +3703,7 @@
         <v>144</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>190</v>
@@ -3684,7 +3724,7 @@
         <v>145</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>190</v>
@@ -3705,7 +3745,7 @@
         <v>141</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>297</v>
+        <v>418</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>190</v>
@@ -3726,7 +3766,7 @@
         <v>142</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>190</v>
@@ -3747,7 +3787,7 @@
         <v>143</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>190</v>
@@ -3768,7 +3808,7 @@
         <v>146</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>190</v>
@@ -3789,7 +3829,7 @@
         <v>147</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>190</v>
@@ -3810,7 +3850,7 @@
         <v>148</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>191</v>
@@ -3829,7 +3869,7 @@
         <v>149</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>191</v>
@@ -3851,7 +3891,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3859,7 +3899,7 @@
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -3888,10 +3928,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>241</v>
@@ -3903,7 +3943,7 @@
         <v>186</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -3911,10 +3951,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>231</v>
@@ -3926,7 +3966,7 @@
         <v>186</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>387</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -3937,7 +3977,7 @@
         <v>159</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>190</v>
@@ -3958,7 +3998,7 @@
         <v>160</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>190</v>
@@ -3979,7 +4019,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>190</v>
@@ -4000,7 +4040,7 @@
         <v>199</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>190</v>
@@ -4021,7 +4061,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>190</v>
@@ -4042,7 +4082,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>190</v>
@@ -4063,7 +4103,7 @@
         <v>162</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>190</v>
@@ -4084,7 +4124,7 @@
         <v>163</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>190</v>
@@ -4105,7 +4145,7 @@
         <v>164</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>190</v>
@@ -4126,7 +4166,7 @@
         <v>165</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>190</v>
@@ -4147,7 +4187,7 @@
         <v>166</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>190</v>
@@ -4168,7 +4208,7 @@
         <v>167</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>190</v>
@@ -4189,7 +4229,7 @@
         <v>168</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>190</v>
@@ -4210,7 +4250,7 @@
         <v>169</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>190</v>
@@ -4231,7 +4271,7 @@
         <v>170</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>190</v>
@@ -4252,7 +4292,7 @@
         <v>134</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>190</v>
@@ -4273,13 +4313,13 @@
         <v>135</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>190</v>
+        <v>430</v>
       </c>
       <c r="E20" s="18">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>186</v>
@@ -4294,13 +4334,13 @@
         <v>136</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>190</v>
+        <v>431</v>
       </c>
       <c r="E21" s="18">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>186</v>
@@ -4315,7 +4355,7 @@
         <v>171</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>190</v>
@@ -4336,7 +4376,7 @@
         <v>172</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>190</v>
@@ -4357,7 +4397,7 @@
         <v>173</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>327</v>
+        <v>419</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>190</v>
@@ -4378,7 +4418,7 @@
         <v>174</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>190</v>
@@ -4399,7 +4439,7 @@
         <v>175</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>190</v>
@@ -4420,7 +4460,7 @@
         <v>176</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>190</v>
@@ -4441,7 +4481,7 @@
         <v>177</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>190</v>
@@ -4462,7 +4502,7 @@
         <v>178</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>191</v>
@@ -4481,7 +4521,7 @@
         <v>179</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>191</v>
@@ -5613,10 +5653,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5625,14 +5665,14 @@
     <col min="2" max="2" width="23.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
     <col min="9" max="9" width="9.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="31.75" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -5652,166 +5692,150 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="E2" s="10">
+        <v>11</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2">
-        <v>255</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E3" s="2">
+        <v>255</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4">
-        <v>255</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>341</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>337</v>
+        <v>239</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
+        <v>424</v>
       </c>
       <c r="E4" s="4">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>79</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>342</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>340</v>
+        <v>273</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>7</v>
+        <v>425</v>
       </c>
       <c r="E5" s="4">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>79</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>18</v>
+        <v>337</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>7</v>
+        <v>425</v>
       </c>
       <c r="E6" s="4">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="26" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="G6" s="25" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>392</v>
+        <v>350</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>7</v>
+        <v>425</v>
       </c>
       <c r="E7" s="4">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="G7" s="26" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>7</v>
@@ -5823,15 +5847,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>7</v>
@@ -5843,15 +5867,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>7</v>
@@ -5863,15 +5887,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>7</v>
@@ -5882,16 +5906,20 @@
       <c r="F11" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="G11" s="3"/>
+      <c r="H11" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>7</v>
@@ -5902,54 +5930,66 @@
       <c r="F12" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="G12" s="5"/>
+      <c r="H12" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="E13" s="4">
+        <v>255</v>
+      </c>
       <c r="F13" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="8">
+      <c r="G13" s="6"/>
+      <c r="H13" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="8">
-        <v>255</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="B14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>96</v>
@@ -5961,20 +6001,22 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>96</v>
+      </c>
+      <c r="E16" s="8">
+        <v>255</v>
+      </c>
       <c r="F16" s="13" t="s">
         <v>98</v>
       </c>
@@ -5984,33 +6026,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>388</v>
+        <v>54</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="8">
-        <v>255</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E17" s="8"/>
       <c r="F17" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="30" t="s">
-        <v>420</v>
-      </c>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>70</v>
+        <v>379</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>96</v>
@@ -6021,16 +6058,19 @@
       <c r="F18" s="13" t="s">
         <v>98</v>
       </c>
+      <c r="G18" s="30" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>96</v>
@@ -6044,13 +6084,13 @@
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>96</v>
@@ -6064,13 +6104,13 @@
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>96</v>
@@ -6084,13 +6124,13 @@
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>96</v>
@@ -6098,19 +6138,19 @@
       <c r="E22" s="8">
         <v>255</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>96</v>
@@ -6124,54 +6164,51 @@
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="8"/>
+        <v>96</v>
+      </c>
+      <c r="E24" s="8">
+        <v>255</v>
+      </c>
       <c r="F24" s="29" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>390</v>
+        <v>54</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="8">
-        <v>255</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E25" s="8"/>
       <c r="F25" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G25" s="30" t="s">
-        <v>420</v>
-      </c>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>70</v>
+        <v>381</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>96</v>
@@ -6182,16 +6219,19 @@
       <c r="F26" s="29" t="s">
         <v>98</v>
       </c>
+      <c r="G26" s="30" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>96</v>
@@ -6205,13 +6245,13 @@
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>96</v>
@@ -6225,13 +6265,13 @@
     </row>
     <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>96</v>
@@ -6244,34 +6284,34 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A30" s="9">
-        <v>31</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="D30" s="9" t="s">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="9">
-        <v>255</v>
-      </c>
-      <c r="F30" s="13" t="s">
+      <c r="E30" s="8">
+        <v>255</v>
+      </c>
+      <c r="F30" s="29" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>96</v>
@@ -6285,13 +6325,13 @@
     </row>
     <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>96</v>
@@ -6305,51 +6345,51 @@
     </row>
     <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E33" s="9"/>
+        <v>96</v>
+      </c>
+      <c r="E33" s="9">
+        <v>255</v>
+      </c>
       <c r="F33" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" s="9">
-        <v>255</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E34" s="9"/>
       <c r="F34" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>96</v>
@@ -6363,19 +6403,39 @@
     </row>
     <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="9">
+        <v>255</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A37" s="9">
+        <v>36</v>
+      </c>
+      <c r="B37" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="D36" s="9" t="s">
+      <c r="C37" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="13" t="s">
+      <c r="E37" s="9"/>
+      <c r="F37" s="13" t="s">
         <v>98</v>
       </c>
     </row>
@@ -6427,10 +6487,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>192</v>
@@ -6450,10 +6510,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>96</v>
@@ -6471,10 +6531,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>235</v>
@@ -6483,7 +6543,7 @@
         <v>255</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G4" s="18"/>
     </row>
@@ -6492,19 +6552,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>355</v>
-      </c>
       <c r="E5" s="18">
         <v>255</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G5" s="18"/>
     </row>
@@ -6513,10 +6573,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>235</v>
@@ -6525,7 +6585,7 @@
         <v>255</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G6" s="18"/>
     </row>
@@ -6534,10 +6594,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>235</v>
@@ -6546,7 +6606,7 @@
         <v>255</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G7" s="18"/>
     </row>
@@ -6561,7 +6621,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6574,22 +6634,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="G1" s="22"/>
     </row>
@@ -6598,22 +6658,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="E2" s="18">
         <v>11</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -6621,19 +6681,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="E3" s="18">
         <v>255</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G3" s="22"/>
     </row>
@@ -6642,19 +6702,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="E4" s="18">
         <v>255</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G4" s="22"/>
     </row>
@@ -6663,19 +6723,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="E5" s="18">
         <v>255</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G5" s="22"/>
     </row>
@@ -6684,22 +6744,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="E6" s="18">
         <v>4</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -6707,19 +6767,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="E7" s="18">
         <v>11</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G7" s="22"/>
     </row>
@@ -6728,22 +6788,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E8" s="18">
         <v>4</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
